--- a/Testes Normas Iso: 29119-3/Gestão de teste.xlsx
+++ b/Testes Normas Iso: 29119-3/Gestão de teste.xlsx
@@ -168,21 +168,21 @@
     <t>O background deverá ficar na cor Amarela Esverdeado</t>
   </si>
   <si>
-    <t>Levar o mouse sobre o decimo botão,
+    <t>Levar o mouse sobre o décimo botão,
 Botão: "Escolha Amarelo Alaranjado" e clicar.</t>
   </si>
   <si>
     <t>O background deverá ficar na cor Amarelo Alaranjado</t>
   </si>
   <si>
-    <t>Levar o mouse sobre o decimo primeiro botão,
+    <t>Levar o mouse sobre o décimo primeiro botão,
 Botão: "Escolha Azul Arroxeado" e clicar.</t>
   </si>
   <si>
     <t>O background deverá ficar na cor Azul Arroxeado</t>
   </si>
   <si>
-    <t>Levar o mouse sobre o decimo segundo botão,
+    <t>Levar o mouse sobre o décimo segundo botão,
 Botão: "Escolha Azul Esverdeado" e clicar.</t>
   </si>
   <si>
@@ -283,11 +283,10 @@
 Botão: "Escolha Amarelo Esverdeado"</t>
   </si>
   <si>
-    <t>O botão deverá ficar na cor Amarela Esverdeado</t>
-  </si>
-  <si>
-    <t>Levar o mouse sobre o decimo botão.
-Botão: "Escolha Amarelo Alaranjado"</t>
+    <t>O botão deverá ficar na cor Amarelo Esverdeado</t>
+  </si>
+  <si>
+    <t>Levar o mouse sobre o décimo botão.Botão: "Escolha Amarelo Alaranjado"</t>
   </si>
   <si>
     <t>O botão deverá ficar na cor Amarelo Alaranjado</t>
@@ -297,15 +296,13 @@
  a escrita se encontra errada.</t>
   </si>
   <si>
-    <t>Levar o mouse sobre o decimo primeiro botão.
-Botão: "Escolha Azul Arroxeado"</t>
+    <t>Levar o mouse sobre o décimo primeiro botão.Botão: "Escolha Azul Arroxeado"</t>
   </si>
   <si>
     <t>O botão deverá ficar na cor Azul Arroxeado</t>
   </si>
   <si>
-    <t>Levar o mouse sobre o decimo segundo botão.
-Botão: "Escolha Azul Esverdeado"</t>
+    <t>Levar o mouse sobre o décimo segundo botão.Botão: "Escolha Azul Esverdeado"</t>
   </si>
   <si>
     <t>O botão deverá ficar na cor Azul Esverdeado</t>
@@ -409,18 +406,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -471,6 +468,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -483,13 +487,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -511,63 +508,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -881,16 +875,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="58.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="58.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="58.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
-      <c r="A1" s="17"/>
+      <c r="A1" s="16"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -898,7 +892,7 @@
       <c r="F1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -950,7 +944,7 @@
       <c r="F6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="2"/>
@@ -960,7 +954,7 @@
       <c r="F7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -977,36 +971,36 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1024,7 +1018,7 @@
       <c r="F12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="2"/>
@@ -1034,7 +1028,7 @@
       <c r="F13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1057,12 +1051,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="41.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="77.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="41.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="77.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="57.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -1081,7 +1075,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1089,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1099,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1109,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1125,8 +1119,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
@@ -1143,7 +1137,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1153,229 +1147,229 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="8">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="8">
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="8">
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="8">
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="8">
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="8">
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="8">
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="8">
+      <c r="F16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="8">
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="8">
+      <c r="F18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="8">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="6">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="8">
+      <c r="F20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1387,7 +1381,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
@@ -1397,8 +1391,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
-      <c r="A24" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="2"/>
@@ -1423,12 +1417,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="68.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="59.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="68.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="59.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -1492,7 +1486,7 @@
       <c r="F6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
@@ -1519,229 +1513,229 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1764,7 +1758,7 @@
       <c r="F23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="2"/>
